--- a/data/trans_orig/P15B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15B-Estudios-trans_orig.xlsx
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5098</v>
+        <v>4125</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02194131719912829</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1119719049316809</v>
+        <v>0.09061204429295149</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5521</v>
+        <v>5121</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01412898046029337</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07808771018759289</v>
+        <v>0.07243728556486212</v>
       </c>
     </row>
     <row r="6">
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5054</v>
+        <v>5354</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02312439391181369</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1110160614149312</v>
+        <v>0.1175927473520189</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5267</v>
+        <v>5623</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01489081565937724</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07450073490598445</v>
+        <v>0.07952944368425299</v>
       </c>
     </row>
     <row r="7">
@@ -917,19 +917,19 @@
         <v>6951</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3234</v>
+        <v>3029</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12228</v>
+        <v>12431</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2761244301776081</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1284838381153386</v>
+        <v>0.1203065590426552</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4857300172836329</v>
+        <v>0.4938196595766443</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -938,19 +938,19 @@
         <v>2909</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7175</v>
+        <v>7729</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06390373399610368</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01870443164153848</v>
+        <v>0.01874917174106189</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1575914402822099</v>
+        <v>0.1697528480226695</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -959,19 +959,19 @@
         <v>9861</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5457</v>
+        <v>5218</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16707</v>
+        <v>16493</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1394661775118357</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0771841468848941</v>
+        <v>0.07380952128384065</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2363012494859847</v>
+        <v>0.2332728541384312</v>
       </c>
     </row>
     <row r="8">
@@ -991,16 +991,16 @@
         <v>921</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8969</v>
+        <v>9300</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1446773125721214</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0365925420497917</v>
+        <v>0.0365741941879722</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3562885317607148</v>
+        <v>0.3694397292987491</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1009,19 +1009,19 @@
         <v>10077</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5311</v>
+        <v>5262</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15887</v>
+        <v>16433</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2213394813336405</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1166514509928295</v>
+        <v>0.1155799532681664</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.348958548379473</v>
+        <v>0.3609418988401717</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -1030,19 +1030,19 @@
         <v>13719</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7654</v>
+        <v>7742</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21310</v>
+        <v>21452</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1940434593100323</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1082582672829602</v>
+        <v>0.1095024466510941</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3014093730068297</v>
+        <v>0.3034096605850128</v>
       </c>
     </row>
     <row r="9">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5234</v>
+        <v>5870</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06744935837300979</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2078954247166445</v>
+        <v>0.2331672882266038</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4718</v>
+        <v>4722</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02046605141270472</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1036216364032081</v>
+        <v>0.1037231135444179</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1101,19 +1101,19 @@
         <v>2630</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7102</v>
+        <v>7055</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03719473783325071</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01164435877858276</v>
+        <v>0.01165247460002434</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1004527431265533</v>
+        <v>0.09978633650071768</v>
       </c>
     </row>
     <row r="10">
@@ -1130,19 +1130,19 @@
         <v>7305</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3352</v>
+        <v>3162</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12586</v>
+        <v>12399</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.290190307855157</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1331708948891942</v>
+        <v>0.125615588229612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4999778401157745</v>
+        <v>0.4925147321233684</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1151,19 +1151,19 @@
         <v>3102</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>911</v>
+        <v>933</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8077</v>
+        <v>8003</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.068123910963032</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.020001951506936</v>
+        <v>0.02048766467310702</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1774044301136744</v>
+        <v>0.1757747578542077</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1172,19 +1172,19 @@
         <v>10407</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5269</v>
+        <v>5985</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17663</v>
+        <v>17270</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.147191974888108</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07451705681715791</v>
+        <v>0.08464671364274423</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2498172819692126</v>
+        <v>0.2442684473605037</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>5578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1870</v>
+        <v>1932</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10525</v>
+        <v>10412</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2215585910221036</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07427221956936751</v>
+        <v>0.07673752404285626</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4181082375690222</v>
+        <v>0.4136127716940338</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -1269,19 +1269,19 @@
         <v>26456</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19592</v>
+        <v>19042</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32697</v>
+        <v>32666</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5811011111835771</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4303187087842963</v>
+        <v>0.4182428731379887</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7181658457256412</v>
+        <v>0.7174961450697745</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -1290,19 +1290,19 @@
         <v>32034</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>24460</v>
+        <v>23848</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>40574</v>
+        <v>39865</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4530838543371027</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.345956167434291</v>
+        <v>0.3373015849192342</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5738745584191702</v>
+        <v>0.5638419258701851</v>
       </c>
     </row>
     <row r="13">
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8840</v>
+        <v>10912</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03406972580758514</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.112603063234847</v>
+        <v>0.1390044492822141</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7971</v>
+        <v>8151</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06622136012909177</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2274653659648869</v>
+        <v>0.2326024121046621</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -1483,19 +1483,19 @@
         <v>4995</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1787</v>
+        <v>1177</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12034</v>
+        <v>12166</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04399237148141275</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01573656687189745</v>
+        <v>0.01036177079269707</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1059839044644281</v>
+        <v>0.1071435347763901</v>
       </c>
     </row>
     <row r="16">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6149</v>
+        <v>6609</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02472422331439106</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07832613826003169</v>
+        <v>0.0841915607880363</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6244</v>
+        <v>6479</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05753822437759129</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1781956020476472</v>
+        <v>0.1848914923823956</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1554,19 +1554,19 @@
         <v>3957</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1017</v>
+        <v>982</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9868</v>
+        <v>9825</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03485128878281546</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00895941337533215</v>
+        <v>0.00864610643348941</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08690615184511825</v>
+        <v>0.08652626989460672</v>
       </c>
     </row>
     <row r="17">
@@ -1583,19 +1583,19 @@
         <v>22133</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14678</v>
+        <v>14118</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31122</v>
+        <v>31014</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2819402878148046</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1869787207902222</v>
+        <v>0.1798371560114495</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3964401718662615</v>
+        <v>0.3950705935124306</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1604,19 +1604,19 @@
         <v>6527</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2983</v>
+        <v>2557</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12398</v>
+        <v>12340</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1862633357992091</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08513862662838707</v>
+        <v>0.07296244456707347</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3537899541794475</v>
+        <v>0.3521481957749718</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -1625,19 +1625,19 @@
         <v>28660</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20497</v>
+        <v>20171</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39627</v>
+        <v>39731</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2524124422157547</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1805208034664013</v>
+        <v>0.1776441735317136</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3489929553503439</v>
+        <v>0.349911208403107</v>
       </c>
     </row>
     <row r="18">
@@ -1654,19 +1654,19 @@
         <v>11278</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5629</v>
+        <v>5647</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19267</v>
+        <v>19173</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1436688800243288</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07170339629479959</v>
+        <v>0.07193378478520528</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2454326731823249</v>
+        <v>0.2442292143264835</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -1675,19 +1675,19 @@
         <v>5020</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1972</v>
+        <v>1955</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9483</v>
+        <v>10301</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1432656646782462</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05628441018197895</v>
+        <v>0.05578895485310584</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2706216682602403</v>
+        <v>0.2939614584110564</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -1696,19 +1696,19 @@
         <v>16299</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9721</v>
+        <v>9391</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>24009</v>
+        <v>24461</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1435444396002614</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08560924636556415</v>
+        <v>0.08270485956745958</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2114473497937973</v>
+        <v>0.2154269542957948</v>
       </c>
     </row>
     <row r="19">
@@ -1725,19 +1725,19 @@
         <v>7510</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3636</v>
+        <v>3691</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13466</v>
+        <v>13991</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09566957759234224</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04631234701365668</v>
+        <v>0.04701728471393549</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1715397567741596</v>
+        <v>0.1782184626470538</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1746,19 +1746,19 @@
         <v>2954</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7970</v>
+        <v>7017</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08430594471363102</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02656328612862146</v>
+        <v>0.02639138995213303</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2274421200958683</v>
+        <v>0.2002413038704134</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -1767,19 +1767,19 @@
         <v>10465</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5389</v>
+        <v>4954</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18313</v>
+        <v>17783</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09216253028347544</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04746396375251038</v>
+        <v>0.04363219745029785</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1612857650762384</v>
+        <v>0.1566145494649106</v>
       </c>
     </row>
     <row r="20">
@@ -1796,19 +1796,19 @@
         <v>29383</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21111</v>
+        <v>20659</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>38912</v>
+        <v>37963</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3742957082745452</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2689174544755995</v>
+        <v>0.2631609854132096</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4956784578566089</v>
+        <v>0.4835908797929197</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1817,19 +1817,19 @@
         <v>4864</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1858</v>
+        <v>1873</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9552</v>
+        <v>9721</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1388062674632573</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05301242526485257</v>
+        <v>0.05344590672798126</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2725807414456606</v>
+        <v>0.2774021543666874</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>33</v>
@@ -1838,19 +1838,19 @@
         <v>34248</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24887</v>
+        <v>25042</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>45179</v>
+        <v>44928</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3016188963360872</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2191828574966917</v>
+        <v>0.2205410498720499</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3978949594846378</v>
+        <v>0.3956773532795448</v>
       </c>
     </row>
     <row r="21">
@@ -1914,19 +1914,19 @@
         <v>3582</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>881</v>
+        <v>1013</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8485</v>
+        <v>7875</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04563159717200301</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01122761456444597</v>
+        <v>0.01290969589155152</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1080841291004276</v>
+        <v>0.1003138533939039</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -1935,19 +1935,19 @@
         <v>11340</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5934</v>
+        <v>6795</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17353</v>
+        <v>17789</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3235992028389733</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1693459325051703</v>
+        <v>0.1939073152368564</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4952004292007287</v>
+        <v>0.507657755732596</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -1956,19 +1956,19 @@
         <v>14922</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9010</v>
+        <v>8542</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23407</v>
+        <v>23203</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1314180313001931</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07935470463840685</v>
+        <v>0.07523176920178412</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2061486224465279</v>
+        <v>0.204351907688803</v>
       </c>
     </row>
     <row r="23">
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4387</v>
+        <v>5260</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05081243647298674</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2261101707310694</v>
+        <v>0.2711539130436298</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4240</v>
+        <v>5594</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03020519242635649</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1299181570648623</v>
+        <v>0.1714074616754982</v>
       </c>
     </row>
     <row r="26">
@@ -2217,19 +2217,19 @@
         <v>5078</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1928</v>
+        <v>1183</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>11045</v>
+        <v>10364</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2617363866714987</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09937516052716139</v>
+        <v>0.06097851037484146</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5693296789438393</v>
+        <v>0.5342377209411648</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -2238,19 +2238,19 @@
         <v>3876</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>970</v>
+        <v>942</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7934</v>
+        <v>7708</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2928645395901718</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07324843298570229</v>
+        <v>0.07115419517394206</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5994315821543713</v>
+        <v>0.5823656090907318</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>8</v>
@@ -2259,19 +2259,19 @@
         <v>8954</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4251</v>
+        <v>4776</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>15244</v>
+        <v>15764</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2743605686324827</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1302487256730458</v>
+        <v>0.1463329213209309</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4670796144359314</v>
+        <v>0.4830358766254816</v>
       </c>
     </row>
     <row r="28">
@@ -2288,19 +2288,19 @@
         <v>5378</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1907</v>
+        <v>2070</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9989</v>
+        <v>10539</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2771986257002638</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09830984743370887</v>
+        <v>0.1066833226864491</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5148849134374076</v>
+        <v>0.5432631129868718</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4258</v>
+        <v>5093</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07688869628108227</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.32172135193176</v>
+        <v>0.3847520808840765</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -2330,19 +2330,19 @@
         <v>6395</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2902</v>
+        <v>2889</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12390</v>
+        <v>12080</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1959619071520631</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08892348728087818</v>
+        <v>0.08852143330903721</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3796339591463207</v>
+        <v>0.3701543183369226</v>
       </c>
     </row>
     <row r="29">
@@ -2359,19 +2359,19 @@
         <v>3310</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8253</v>
+        <v>8667</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1706438490372162</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04629523402425993</v>
+        <v>0.04632199576660951</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4253968693627502</v>
+        <v>0.4467714728103131</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4952</v>
+        <v>4577</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07409953127075594</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3741074742149406</v>
+        <v>0.3457733952288998</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2401,19 +2401,19 @@
         <v>4291</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1044</v>
+        <v>955</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9747</v>
+        <v>9427</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1314898061369797</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03199380716597652</v>
+        <v>0.0292561446014241</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2986723403684268</v>
+        <v>0.2888532512832187</v>
       </c>
     </row>
     <row r="30">
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7868</v>
+        <v>8903</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1445484441229595</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4055662376124655</v>
+        <v>0.4589029920359561</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5758</v>
+        <v>6612</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1149889295652367</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.435038704070456</v>
+        <v>0.4995231485982172</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2472,19 +2472,19 @@
         <v>4326</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1011</v>
+        <v>971</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10820</v>
+        <v>10692</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1325604314891873</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03096598434823206</v>
+        <v>0.02975524720419101</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3315446652056149</v>
+        <v>0.3276142765017424</v>
       </c>
     </row>
     <row r="31">
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4620</v>
+        <v>5071</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07766667443545754</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3490734415020936</v>
+        <v>0.383108284997961</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4877</v>
+        <v>4403</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03149811789152285</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1494213867764182</v>
+        <v>0.1349052819454218</v>
       </c>
     </row>
     <row r="32">
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5838</v>
+        <v>5885</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09506025799507498</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3009163311867246</v>
+        <v>0.3033735045741249</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -2585,19 +2585,19 @@
         <v>4811</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1291</v>
+        <v>1075</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8952</v>
+        <v>8944</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3634916288572957</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09753712814914729</v>
+        <v>0.08119197857779822</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6763352007254625</v>
+        <v>0.6757521667306022</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -2606,19 +2606,19 @@
         <v>6655</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2568</v>
+        <v>2808</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12709</v>
+        <v>12998</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.203923976271408</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07868310531170619</v>
+        <v>0.08604604488280509</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3894054833350608</v>
+        <v>0.3982800337842985</v>
       </c>
     </row>
     <row r="33">
@@ -2757,19 +2757,19 @@
         <v>3660</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10846</v>
+        <v>10889</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02974029814428528</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0073231535560485</v>
+        <v>0.007276582542061098</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08812306767747216</v>
+        <v>0.08847280420322681</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -2778,19 +2778,19 @@
         <v>3320</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1010</v>
+        <v>986</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10367</v>
+        <v>9432</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03538693327523127</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01076466447752414</v>
+        <v>0.01051286698788218</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1105197078328099</v>
+        <v>0.100550838516152</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>6</v>
@@ -2799,19 +2799,19 @@
         <v>6980</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2756</v>
+        <v>2738</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>14955</v>
+        <v>15062</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0321825737451014</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01270764396795855</v>
+        <v>0.01262454711268119</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06895282903586936</v>
+        <v>0.06944870526070317</v>
       </c>
     </row>
     <row r="36">
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6794</v>
+        <v>6029</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01577005151762356</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05519942018639259</v>
+        <v>0.04898473316148892</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -2849,7 +2849,7 @@
         <v>3069</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>8173</v>
@@ -2858,10 +2858,10 @@
         <v>0.03271742405864934</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0</v>
+        <v>0.01026837709578431</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0871290043389471</v>
+        <v>0.08712995136254807</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5</v>
@@ -2870,19 +2870,19 @@
         <v>5010</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1973</v>
+        <v>1956</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>11425</v>
+        <v>11024</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02310010800171487</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009095396162644478</v>
+        <v>0.009018254324758557</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05267884104488565</v>
+        <v>0.05083048745531828</v>
       </c>
     </row>
     <row r="37">
@@ -2899,19 +2899,19 @@
         <v>34162</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>24228</v>
+        <v>24841</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>44576</v>
+        <v>46272</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2775660850531427</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1968493878661376</v>
+        <v>0.2018290161718584</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3621776783628818</v>
+        <v>0.375957347970988</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>13</v>
@@ -2920,19 +2920,19 @@
         <v>13313</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7002</v>
+        <v>6944</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>21125</v>
+        <v>21259</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1419180316421707</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07464623968809363</v>
+        <v>0.07402509132257941</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.225196939252788</v>
+        <v>0.2266272172456954</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>45</v>
@@ -2941,19 +2941,19 @@
         <v>47475</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>36054</v>
+        <v>34743</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>60406</v>
+        <v>61765</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2188957577766009</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1662353964699463</v>
+        <v>0.1601942281800511</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2785179813808312</v>
+        <v>0.2847829255657269</v>
       </c>
     </row>
     <row r="38">
@@ -2970,19 +2970,19 @@
         <v>20298</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>12720</v>
+        <v>13182</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>30105</v>
+        <v>31052</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1649228169246788</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1033522130387183</v>
+        <v>0.1071033708866656</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2445993309271619</v>
+        <v>0.2522950943003873</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>16</v>
@@ -2991,19 +2991,19 @@
         <v>16115</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>10224</v>
+        <v>9780</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>24428</v>
+        <v>24692</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1717926745863192</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1089938575256185</v>
+        <v>0.1042559130643342</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2604048762024973</v>
+        <v>0.2632209620940901</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>35</v>
@@ -3012,19 +3012,19 @@
         <v>36413</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>26484</v>
+        <v>26952</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>49176</v>
+        <v>49372</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1678941592124341</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1221130014381948</v>
+        <v>0.1242675111183754</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.226737465280248</v>
+        <v>0.2276417052490949</v>
       </c>
     </row>
     <row r="39">
@@ -3041,19 +3041,19 @@
         <v>12519</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>6883</v>
+        <v>7115</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>20492</v>
+        <v>19870</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1017153590606155</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0559280997941588</v>
+        <v>0.05780618341673526</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1664954737818282</v>
+        <v>0.1614441014530807</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>5</v>
@@ -3062,19 +3062,19 @@
         <v>4867</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1892</v>
+        <v>1912</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>10680</v>
+        <v>10984</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.05188173034541757</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02016720791688415</v>
+        <v>0.02038029399381432</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1138475711817512</v>
+        <v>0.1170904177979975</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>18</v>
@@ -3083,19 +3083,19 @@
         <v>17386</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>11028</v>
+        <v>10333</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>27031</v>
+        <v>25677</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.08016137997593044</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.05084743758232856</v>
+        <v>0.04764210303196063</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1246362028489273</v>
+        <v>0.1183894363525281</v>
       </c>
     </row>
     <row r="40">
@@ -3112,19 +3112,19 @@
         <v>39493</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>29359</v>
+        <v>30048</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>50898</v>
+        <v>51287</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3208790836050793</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2385407911320321</v>
+        <v>0.2441374983923758</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4135438132681385</v>
+        <v>0.4167038430676636</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>9</v>
@@ -3133,19 +3133,19 @@
         <v>9488</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4998</v>
+        <v>4701</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>16955</v>
+        <v>16412</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1011406918914414</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05327803248584367</v>
+        <v>0.05011854096064003</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1807475109307728</v>
+        <v>0.1749567541905621</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>47</v>
@@ -3154,19 +3154,19 @@
         <v>48980</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>36902</v>
+        <v>37070</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>62450</v>
+        <v>62490</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.225838107838174</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1701465577093595</v>
+        <v>0.1709232208426756</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2879433517052797</v>
+        <v>0.2881289615526597</v>
       </c>
     </row>
     <row r="41">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4613</v>
+        <v>5145</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01095836355295482</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04917795732547211</v>
+        <v>0.05485196103386395</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>6164</v>
+        <v>5135</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.004739697768601978</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02841896519612085</v>
+        <v>0.02367784222201407</v>
       </c>
     </row>
     <row r="42">
@@ -3246,19 +3246,19 @@
         <v>11004</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6131</v>
+        <v>6077</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>18019</v>
+        <v>18197</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.08940630569457482</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.04981354241970038</v>
+        <v>0.04937428096730235</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1464015953400793</v>
+        <v>0.1478486111331447</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>40</v>
@@ -3267,19 +3267,19 @@
         <v>42607</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>33917</v>
+        <v>33064</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>52426</v>
+        <v>52884</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4542041506478157</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3615692538067002</v>
+        <v>0.3524768938461931</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5588717979016279</v>
+        <v>0.5637642237346524</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>52</v>
@@ -3288,19 +3288,19 @@
         <v>53611</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>42299</v>
+        <v>41978</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>67680</v>
+        <v>66890</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2471882156814423</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1950332758550345</v>
+        <v>0.1935500971956502</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3120557981070944</v>
+        <v>0.3084135960789753</v>
       </c>
     </row>
     <row r="43">
@@ -3631,19 +3631,19 @@
         <v>2698</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7508</v>
+        <v>6970</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0351582637748574</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009262760225394169</v>
+        <v>0.009323005619700286</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09784163040540353</v>
+        <v>0.09082889799521869</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7152</v>
+        <v>7245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0181052490599283</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06332624817542785</v>
+        <v>0.0641537900576523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -3673,19 +3673,19 @@
         <v>4743</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1694</v>
+        <v>1720</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9730</v>
+        <v>10769</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02500457780706673</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008933557779762112</v>
+        <v>0.009068666042065228</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0512989928405997</v>
+        <v>0.05677694691938675</v>
       </c>
     </row>
     <row r="5">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5273</v>
+        <v>5183</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0136117676239155</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0687136545727781</v>
+        <v>0.06753539983874493</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -3723,19 +3723,19 @@
         <v>4142</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1040</v>
+        <v>1095</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10407</v>
+        <v>10930</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03667482177260532</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.009207888192112143</v>
+        <v>0.009698549567798453</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09215186408904735</v>
+        <v>0.09678011354950793</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -3744,19 +3744,19 @@
         <v>5187</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10632</v>
+        <v>11373</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02734394420375151</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01060834252450953</v>
+        <v>0.01058562013591599</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0560547242219774</v>
+        <v>0.05995933073460605</v>
       </c>
     </row>
     <row r="6">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6487</v>
+        <v>5729</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02348820167191038</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08453772095195913</v>
+        <v>0.07465320719048511</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -3794,19 +3794,19 @@
         <v>5236</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2004</v>
+        <v>1966</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11342</v>
+        <v>10732</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04636015771167277</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01774287237125833</v>
+        <v>0.01741033339971371</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1004255931804856</v>
+        <v>0.09502906843078046</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -3815,19 +3815,19 @@
         <v>7038</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3090</v>
+        <v>2976</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13649</v>
+        <v>14017</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03710659484045378</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01628894351715741</v>
+        <v>0.01569094736580857</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07195903632845624</v>
+        <v>0.07389889276656782</v>
       </c>
     </row>
     <row r="7">
@@ -3844,19 +3844,19 @@
         <v>15556</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8993</v>
+        <v>8155</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25003</v>
+        <v>24354</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2027142921321129</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1171924243769566</v>
+        <v>0.1062739182578325</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3258199452188221</v>
+        <v>0.3173618293755759</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6951</v>
+        <v>6056</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01766825143830037</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06154598962988186</v>
+        <v>0.05362691767673128</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -3886,19 +3886,19 @@
         <v>17552</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9643</v>
+        <v>10346</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27590</v>
+        <v>29133</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09253439619013029</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05084166819942709</v>
+        <v>0.05454330752597678</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1454603265402588</v>
+        <v>0.1535917311753357</v>
       </c>
     </row>
     <row r="8">
@@ -3915,19 +3915,19 @@
         <v>12393</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6410</v>
+        <v>6889</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20866</v>
+        <v>20585</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1614964922602279</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08352736173083433</v>
+        <v>0.08976954417355033</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2719042525015343</v>
+        <v>0.2682416097882809</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -3936,19 +3936,19 @@
         <v>19281</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12713</v>
+        <v>12502</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28277</v>
+        <v>29120</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1707218927216595</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1125679364085879</v>
+        <v>0.1107025275018139</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2503802252663958</v>
+        <v>0.2578410817992474</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -3957,19 +3957,19 @@
         <v>31674</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22634</v>
+        <v>23018</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44199</v>
+        <v>44492</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1669894693542125</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1193279359424483</v>
+        <v>0.1213528978241184</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2330215724854714</v>
+        <v>0.2345651995233631</v>
       </c>
     </row>
     <row r="9">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6733</v>
+        <v>7068</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02613696838397767</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.087743981662857</v>
+        <v>0.09210412084338331</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -4007,19 +4007,19 @@
         <v>5179</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1933</v>
+        <v>2058</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10911</v>
+        <v>11407</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04585680111788613</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01711455117228456</v>
+        <v>0.01822635380484467</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09660976707317395</v>
+        <v>0.1010044019605311</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -4028,19 +4028,19 @@
         <v>7185</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3256</v>
+        <v>2993</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15698</v>
+        <v>13724</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03787852800054064</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01716610508885716</v>
+        <v>0.01577749467992386</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0827597867145726</v>
+        <v>0.07235350259695142</v>
       </c>
     </row>
     <row r="10">
@@ -4057,19 +4057,19 @@
         <v>18358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11521</v>
+        <v>11337</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27626</v>
+        <v>26649</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2392230706273218</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1501296117390527</v>
+        <v>0.1477341204537218</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3599994297533378</v>
+        <v>0.3472569900725154</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6746</v>
+        <v>8781</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01916648892874876</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05973644156460677</v>
+        <v>0.07774894587075407</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -4099,19 +4099,19 @@
         <v>20523</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12574</v>
+        <v>12895</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30593</v>
+        <v>30026</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1081972395315047</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06629234518365797</v>
+        <v>0.06798659658632736</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1612884866390647</v>
+        <v>0.1582994249430521</v>
       </c>
     </row>
     <row r="11">
@@ -4175,19 +4175,19 @@
         <v>22882</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15181</v>
+        <v>15776</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32524</v>
+        <v>31697</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2981709435256765</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1978270482608099</v>
+        <v>0.2055836171057657</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4238178841511395</v>
+        <v>0.4130498409319373</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>69</v>
@@ -4196,19 +4196,19 @@
         <v>72895</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>61795</v>
+        <v>61983</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>82805</v>
+        <v>82513</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6454463372491989</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5471664214501083</v>
+        <v>0.5488288129766979</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7332006835481381</v>
+        <v>0.7306066069254658</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>91</v>
@@ -4217,19 +4217,19 @@
         <v>95777</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>81647</v>
+        <v>80820</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>110839</v>
+        <v>110121</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5049452500723398</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4304542547567312</v>
+        <v>0.4260953737863432</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5843587686658462</v>
+        <v>0.5805690349515096</v>
       </c>
     </row>
     <row r="13">
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7140</v>
+        <v>8005</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01767977336993295</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06280445134971101</v>
+        <v>0.07041223402940111</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7325</v>
+        <v>6351</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006768429210352198</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02466445774829756</v>
+        <v>0.02138693040933347</v>
       </c>
     </row>
     <row r="15">
@@ -4384,19 +4384,19 @@
         <v>2822</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7732</v>
+        <v>7499</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01539841964614473</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.004704053933729403</v>
+        <v>0.004754180355191455</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04218738493768629</v>
+        <v>0.04091471272352559</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5072</v>
+        <v>4985</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.008669225560228266</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04461528018912597</v>
+        <v>0.04384686724997236</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -4426,19 +4426,19 @@
         <v>3808</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>983</v>
+        <v>1004</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9036</v>
+        <v>9579</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01282225122700062</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003311210409713503</v>
+        <v>0.003379682974721852</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03042825698788684</v>
+        <v>0.03225621235658463</v>
       </c>
     </row>
     <row r="16">
@@ -4455,19 +4455,19 @@
         <v>6702</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2924</v>
+        <v>2776</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13374</v>
+        <v>12781</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03656506688968233</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01595419236046179</v>
+        <v>0.01514659765019122</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07296716699510103</v>
+        <v>0.06973560798256483</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4476,19 +4476,19 @@
         <v>9669</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4786</v>
+        <v>5563</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15945</v>
+        <v>16608</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08504490790456569</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04209401265524668</v>
+        <v>0.04892603661003306</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1402451306708681</v>
+        <v>0.1460773743051104</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -4497,19 +4497,19 @@
         <v>16371</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9764</v>
+        <v>10082</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24819</v>
+        <v>26865</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05512482810225558</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0328768362661641</v>
+        <v>0.03394895239757745</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08357299611374647</v>
+        <v>0.09045990051928239</v>
       </c>
     </row>
     <row r="17">
@@ -4526,19 +4526,19 @@
         <v>38361</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28392</v>
+        <v>28648</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51024</v>
+        <v>52122</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2092984612306568</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.15490947995688</v>
+        <v>0.1563043324390146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2783861723112863</v>
+        <v>0.2843782314864112</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -4547,19 +4547,19 @@
         <v>17335</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10718</v>
+        <v>10426</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26991</v>
+        <v>26302</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1524718656493928</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09427501087770902</v>
+        <v>0.09169896717002197</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2374050604540744</v>
+        <v>0.2313432084886033</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>52</v>
@@ -4568,19 +4568,19 @@
         <v>55696</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>43356</v>
+        <v>43589</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>71682</v>
+        <v>69408</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1875432734570843</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1459898543485824</v>
+        <v>0.1467762780105498</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.24137140557433</v>
+        <v>0.2337167288376648</v>
       </c>
     </row>
     <row r="18">
@@ -4597,19 +4597,19 @@
         <v>16201</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9171</v>
+        <v>9784</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25880</v>
+        <v>27040</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08839423764021816</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05003760837384452</v>
+        <v>0.05337946810971614</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1412005635193249</v>
+        <v>0.1475315098681215</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -4618,19 +4618,19 @@
         <v>22425</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15173</v>
+        <v>14841</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31981</v>
+        <v>32242</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1972397243588974</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1334584746668195</v>
+        <v>0.1305363830529685</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2812934749270872</v>
+        <v>0.2835843588275822</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -4639,19 +4639,19 @@
         <v>38626</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>27448</v>
+        <v>27059</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>54005</v>
+        <v>52879</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1300640575132828</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0924236361628929</v>
+        <v>0.09111606426889939</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1818486114061351</v>
+        <v>0.1780560671116543</v>
       </c>
     </row>
     <row r="19">
@@ -4668,19 +4668,19 @@
         <v>44895</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33787</v>
+        <v>32094</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>57941</v>
+        <v>56912</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.244949232704193</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1843432610061158</v>
+        <v>0.1751025930557563</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3161241634206167</v>
+        <v>0.3105143133793248</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -4689,19 +4689,19 @@
         <v>8638</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3808</v>
+        <v>3903</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15760</v>
+        <v>16679</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07597744791120215</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03349008131482199</v>
+        <v>0.03432774810973524</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1386187523850432</v>
+        <v>0.1467002137740074</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>51</v>
@@ -4710,19 +4710,19 @@
         <v>53533</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40930</v>
+        <v>42013</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69208</v>
+        <v>68717</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1802609847279373</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1378217420989683</v>
+        <v>0.1414688610410454</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2330428359195938</v>
+        <v>0.2313879094873781</v>
       </c>
     </row>
     <row r="20">
@@ -4739,19 +4739,19 @@
         <v>38778</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28691</v>
+        <v>28576</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50542</v>
+        <v>50720</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2115723887800103</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1565405968172573</v>
+        <v>0.1559134768768396</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2757593281480057</v>
+        <v>0.2767280747639746</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -4760,19 +4760,19 @@
         <v>7560</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3310</v>
+        <v>3206</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14259</v>
+        <v>14095</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06649507113341437</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0291117131397822</v>
+        <v>0.02820086082629243</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1254155892452332</v>
+        <v>0.1239725410450419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>47</v>
@@ -4781,19 +4781,19 @@
         <v>46338</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>34724</v>
+        <v>34538</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>60102</v>
+        <v>59220</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.156031769905975</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1169241068156256</v>
+        <v>0.1162985456196404</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2023799225342632</v>
+        <v>0.1994077972492512</v>
       </c>
     </row>
     <row r="21">
@@ -4810,19 +4810,19 @@
         <v>2659</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7193</v>
+        <v>6997</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01450930635843538</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0</v>
+        <v>0.004008140920700142</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03924370464870701</v>
+        <v>0.03817597671425474</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -4844,19 +4844,19 @@
         <v>2659</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7392</v>
+        <v>6986</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00895464166203179</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002497608911479909</v>
+        <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02488951784902641</v>
+        <v>0.02352488940488745</v>
       </c>
     </row>
     <row r="22">
@@ -4873,19 +4873,19 @@
         <v>32865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22374</v>
+        <v>23163</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43439</v>
+        <v>44486</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1793128867506593</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1220714911813595</v>
+        <v>0.1263763427158703</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2370047643767661</v>
+        <v>0.2427182528579975</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>42</v>
@@ -4894,19 +4894,19 @@
         <v>45070</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34095</v>
+        <v>35839</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55974</v>
+        <v>56600</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3964219841123664</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2998849289197626</v>
+        <v>0.3152245466014389</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4923297865834296</v>
+        <v>0.4978292698011997</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -4915,19 +4915,19 @@
         <v>77936</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63108</v>
+        <v>62793</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94543</v>
+        <v>94089</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2624297641940804</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2124999383909195</v>
+        <v>0.2114392555649232</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3183510875656613</v>
+        <v>0.3168236511381327</v>
       </c>
     </row>
     <row r="23">
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6942</v>
+        <v>7350</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09225651727603328</v>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2664355868573753</v>
+        <v>0.2821219251175496</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6415</v>
+        <v>5622</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0399576964125464</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2229533240964045</v>
+        <v>0.1953720056689228</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -5155,19 +5155,19 @@
         <v>3553</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1105</v>
+        <v>1151</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9667</v>
+        <v>9877</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06480958869555331</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02015927076196911</v>
+        <v>0.02099800688229077</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1763117171121509</v>
+        <v>0.1801423873594044</v>
       </c>
     </row>
     <row r="27">
@@ -5184,19 +5184,19 @@
         <v>3745</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>895</v>
+        <v>977</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8103</v>
+        <v>8570</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1437386102615004</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03435968142281244</v>
+        <v>0.03748333044824244</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3110136082667069</v>
+        <v>0.3289364471801382</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -5205,19 +5205,19 @@
         <v>7761</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3556</v>
+        <v>3142</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>13648</v>
+        <v>13845</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2697225407955662</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1235724351097505</v>
+        <v>0.1092067701230517</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4743038851026024</v>
+        <v>0.4811309716603895</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>11</v>
@@ -5226,19 +5226,19 @@
         <v>11506</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5775</v>
+        <v>5966</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>18286</v>
+        <v>18078</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2098561992733554</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1053293812936597</v>
+        <v>0.1088128506269762</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.333506032738486</v>
+        <v>0.3297159519133672</v>
       </c>
     </row>
     <row r="28">
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5521</v>
+        <v>4952</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04351181163406945</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.21191327995999</v>
+        <v>0.1900552946422913</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -5276,19 +5276,19 @@
         <v>5105</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10641</v>
+        <v>10836</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1774077915026276</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06614382082330557</v>
+        <v>0.06607645310405354</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3698097073992995</v>
+        <v>0.3765638680452419</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -5297,19 +5297,19 @@
         <v>6239</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2666</v>
+        <v>2137</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12362</v>
+        <v>12802</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1137817208975778</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04863063747251434</v>
+        <v>0.03897282215091933</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2254633830529144</v>
+        <v>0.2334847878192223</v>
       </c>
     </row>
     <row r="29">
@@ -5326,19 +5326,19 @@
         <v>8604</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4544</v>
+        <v>4700</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14013</v>
+        <v>14403</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3302258167631664</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1744039606402426</v>
+        <v>0.1803867657762607</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5378330661274113</v>
+        <v>0.5527951012369228</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -5347,19 +5347,19 @@
         <v>5303</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1992</v>
+        <v>1968</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10907</v>
+        <v>10958</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1842896332835825</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06922119535736097</v>
+        <v>0.06840418980114607</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3790369655619207</v>
+        <v>0.3808087681514559</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -5368,19 +5368,19 @@
         <v>13907</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8177</v>
+        <v>7817</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21919</v>
+        <v>21238</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2536370918332617</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1491370677771428</v>
+        <v>0.1425728817431078</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3997670495739588</v>
+        <v>0.3873441520574626</v>
       </c>
     </row>
     <row r="30">
@@ -5397,19 +5397,19 @@
         <v>5060</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1908</v>
+        <v>1922</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9619</v>
+        <v>10025</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.194228194096131</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07322112479992496</v>
+        <v>0.07376655097423608</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3691913592226214</v>
+        <v>0.384766025995847</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9959</v>
+        <v>9983</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1293367177832328</v>
@@ -5430,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3460976864541574</v>
+        <v>0.3469242868481945</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -5439,19 +5439,19 @@
         <v>8782</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3420</v>
+        <v>3756</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>16766</v>
+        <v>16388</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1601725177647072</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06237154543820476</v>
+        <v>0.06851147816073472</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3057781247295849</v>
+        <v>0.2988959503031658</v>
       </c>
     </row>
     <row r="31">
@@ -5515,19 +5515,19 @@
         <v>5108</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10559</v>
+        <v>10411</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1960390499690995</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07626812597492301</v>
+        <v>0.07609258098629403</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4052670183107741</v>
+        <v>0.3995828155420417</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -5536,19 +5536,19 @@
         <v>5734</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2035</v>
+        <v>2000</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12629</v>
+        <v>12762</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1992856202224445</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07071090280888594</v>
+        <v>0.06949848052763632</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4389043986950146</v>
+        <v>0.4435199563606904</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -5557,19 +5557,19 @@
         <v>10842</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6107</v>
+        <v>5905</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>18246</v>
+        <v>18084</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1977428815355447</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1113823363570016</v>
+        <v>0.1076948194128196</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3327871317876448</v>
+        <v>0.3298250928849897</v>
       </c>
     </row>
     <row r="33">
@@ -5661,19 +5661,19 @@
         <v>2698</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7548</v>
+        <v>7020</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009431112634070603</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002507997622417019</v>
+        <v>0.002509948590641036</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02638546838225504</v>
+        <v>0.02453738692189707</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -5682,19 +5682,19 @@
         <v>4055</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9401</v>
+        <v>10249</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01587605182733228</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004107160758483256</v>
+        <v>0.004098364785338653</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03680899835907847</v>
+        <v>0.04012972084089083</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -5703,19 +5703,19 @@
         <v>6753</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2769</v>
+        <v>2951</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>13165</v>
+        <v>13246</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01247104219601775</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005114390381736021</v>
+        <v>0.005450608660150014</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02431348939539557</v>
+        <v>0.02446338604365145</v>
       </c>
     </row>
     <row r="35">
@@ -5732,19 +5732,19 @@
         <v>3867</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8931</v>
+        <v>9630</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01351676243332886</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.003563097253403215</v>
+        <v>0.003556263485727928</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03122026418025876</v>
+        <v>0.03366331100383659</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -5753,19 +5753,19 @@
         <v>5128</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2020</v>
+        <v>2046</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11251</v>
+        <v>11252</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02007626816433291</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007909479143735316</v>
+        <v>0.0080126294127537</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04405311072570967</v>
+        <v>0.04405568579057213</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>9</v>
@@ -5774,19 +5774,19 @@
         <v>8994</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4404</v>
+        <v>4127</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>16931</v>
+        <v>16177</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01661073039570919</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.008132609657467304</v>
+        <v>0.007621987381572284</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03126857673071606</v>
+        <v>0.02987532879291127</v>
       </c>
     </row>
     <row r="36">
@@ -5803,19 +5803,19 @@
         <v>10908</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5228</v>
+        <v>5110</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18110</v>
+        <v>18736</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03812926342772383</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01827550860354566</v>
+        <v>0.01786185043029007</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06330524565851023</v>
+        <v>0.06549305611397518</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>16</v>
@@ -5824,19 +5824,19 @@
         <v>16055</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>9751</v>
+        <v>9572</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>25368</v>
+        <v>25235</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06285929012602597</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03817983105289033</v>
+        <v>0.03747833923212062</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09932609423981785</v>
+        <v>0.09880485313723193</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>27</v>
@@ -5845,19 +5845,19 @@
         <v>26962</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>18617</v>
+        <v>17520</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>39236</v>
+        <v>38309</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04979384814661624</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03438170239484074</v>
+        <v>0.03235558298600678</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07246025631639869</v>
+        <v>0.07074803763859012</v>
       </c>
     </row>
     <row r="37">
@@ -5874,19 +5874,19 @@
         <v>57662</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>43680</v>
+        <v>44602</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>72796</v>
+        <v>72323</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2015614908150833</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1526855553892615</v>
+        <v>0.1559072300390179</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2544636277757006</v>
+        <v>0.2528077985528285</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>25</v>
@@ -5895,19 +5895,19 @@
         <v>27092</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>17879</v>
+        <v>17636</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>38164</v>
+        <v>38599</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1060731378150098</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07000254058811249</v>
+        <v>0.06904975023290422</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1494256142330722</v>
+        <v>0.1511291054123416</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>78</v>
@@ -5916,19 +5916,19 @@
         <v>84754</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>69458</v>
+        <v>67978</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>102902</v>
+        <v>104074</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1565218312617302</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.128273148056671</v>
+        <v>0.1255399873630673</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.19003782415144</v>
+        <v>0.1922024377422964</v>
       </c>
     </row>
     <row r="38">
@@ -5945,19 +5945,19 @@
         <v>29728</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>19509</v>
+        <v>20413</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>41944</v>
+        <v>43999</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1039161142165621</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06819446052531143</v>
+        <v>0.07135457373079657</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1466185522381932</v>
+        <v>0.1538018140597904</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>44</v>
@@ -5966,19 +5966,19 @@
         <v>46811</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>34682</v>
+        <v>35457</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>61622</v>
+        <v>60686</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1832795187734843</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1357935707040599</v>
+        <v>0.138826288839444</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2412731037117326</v>
+        <v>0.2376072270184328</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>70</v>
@@ -5987,19 +5987,19 @@
         <v>76538</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>61552</v>
+        <v>61326</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>96276</v>
+        <v>96148</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1413500065179201</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1136725497981265</v>
+        <v>0.1132557898758529</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1778014093617819</v>
+        <v>0.1775638454704357</v>
       </c>
     </row>
     <row r="39">
@@ -6016,19 +6016,19 @@
         <v>55505</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>43306</v>
+        <v>43248</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>70449</v>
+        <v>71264</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1940198748884844</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1513771822768799</v>
+        <v>0.1511763207059017</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2462566651794938</v>
+        <v>0.2491056499764835</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>18</v>
@@ -6037,19 +6037,19 @@
         <v>19120</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>12415</v>
+        <v>11079</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>29499</v>
+        <v>29226</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.07486126106447745</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.04861084034169211</v>
+        <v>0.04337845889000111</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1154989934093466</v>
+        <v>0.1144284145310996</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>71</v>
@@ -6058,19 +6058,19 @@
         <v>74625</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>59061</v>
+        <v>58751</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>93387</v>
+        <v>92211</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1378154978009603</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.10907196740335</v>
+        <v>0.1084998039595183</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1724663550806521</v>
+        <v>0.1702942938875991</v>
       </c>
     </row>
     <row r="40">
@@ -6087,19 +6087,19 @@
         <v>62196</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>49663</v>
+        <v>48877</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>76623</v>
+        <v>77044</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2174100105525334</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1735998943428589</v>
+        <v>0.1708533086022672</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2678394145816095</v>
+        <v>0.2693114175118934</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>11</v>
@@ -6108,19 +6108,19 @@
         <v>13446</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>7252</v>
+        <v>6739</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>24302</v>
+        <v>23207</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.05264687529362158</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.028392660922409</v>
+        <v>0.02638448427848218</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.095152351366646</v>
+        <v>0.09086444810774015</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>73</v>
@@ -6129,19 +6129,19 @@
         <v>75642</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>60947</v>
+        <v>60352</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>95449</v>
+        <v>93515</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.139695029763214</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1125550235611832</v>
+        <v>0.1114562217363788</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1762728939343496</v>
+        <v>0.1727023136167172</v>
       </c>
     </row>
     <row r="41">
@@ -6158,19 +6158,19 @@
         <v>2659</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7004</v>
+        <v>7404</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.009295805193962257</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.002607799792108876</v>
+        <v>0.002601551844696469</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02448189749500625</v>
+        <v>0.02588261470017471</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -6192,19 +6192,19 @@
         <v>2659</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>7068</v>
+        <v>8003</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.004911187719095668</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0</v>
+        <v>0.00139726249938826</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01305255355143202</v>
+        <v>0.01477960832669509</v>
       </c>
     </row>
     <row r="42">
@@ -6221,19 +6221,19 @@
         <v>60854</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>47452</v>
+        <v>48244</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>75566</v>
+        <v>77036</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2127195658382513</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.165870886208574</v>
+        <v>0.1686381830561409</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2641461905961464</v>
+        <v>0.269283880508497</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>116</v>
@@ -6242,19 +6242,19 @@
         <v>123700</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>106077</v>
+        <v>108616</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>140718</v>
+        <v>142015</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4843275969357158</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4153293025963753</v>
+        <v>0.4252697398388831</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5509614967036325</v>
+        <v>0.5560380631815618</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>175</v>
@@ -6263,19 +6263,19 @@
         <v>184554</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>162769</v>
+        <v>162457</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>205934</v>
+        <v>206635</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3408308261987366</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3005990705999144</v>
+        <v>0.3000232202618863</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3803159536968941</v>
+        <v>0.3816106397190808</v>
       </c>
     </row>
     <row r="43">
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4820</v>
+        <v>3948</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02166515883372508</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1073547830884958</v>
+        <v>0.08794424504923992</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -6721,19 +6721,19 @@
         <v>3938</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1001</v>
+        <v>968</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9923</v>
+        <v>9355</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05278951972270058</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01341662669014804</v>
+        <v>0.01297676289651735</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1330190035514885</v>
+        <v>0.1253948809906616</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -6742,19 +6742,19 @@
         <v>4911</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1921</v>
+        <v>1838</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10579</v>
+        <v>10716</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04109581418847785</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0160719174437441</v>
+        <v>0.01537943955762661</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08853224686275191</v>
+        <v>0.08967309007849264</v>
       </c>
     </row>
     <row r="7">
@@ -6771,19 +6771,19 @@
         <v>6547</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2952</v>
+        <v>2840</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12329</v>
+        <v>11753</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1458308621724974</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06574129405498366</v>
+        <v>0.06326599530659087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2746124434890159</v>
+        <v>0.2617811251215429</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10402</v>
+        <v>8271</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03371400115466618</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1394322138854577</v>
+        <v>0.1108707488256009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -6813,19 +6813,19 @@
         <v>9062</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4481</v>
+        <v>3922</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16906</v>
+        <v>16328</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07583732580189718</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03750188818300649</v>
+        <v>0.03282424355816044</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.141479075595645</v>
+        <v>0.1366362016393751</v>
       </c>
     </row>
     <row r="8">
@@ -6842,19 +6842,19 @@
         <v>12081</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7471</v>
+        <v>6539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18517</v>
+        <v>18325</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2690799990083546</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1663977617272861</v>
+        <v>0.145640645584947</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4124428449316876</v>
+        <v>0.4081614729244569</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -6863,19 +6863,19 @@
         <v>24934</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16759</v>
+        <v>16749</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34800</v>
+        <v>34485</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.334227975352684</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2246502400799368</v>
+        <v>0.2245149149915102</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4664754572070204</v>
+        <v>0.4622521446137069</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -6884,19 +6884,19 @@
         <v>37015</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26911</v>
+        <v>27308</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>48240</v>
+        <v>47103</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3097512879682069</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2252020393984633</v>
+        <v>0.2285251893796159</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4036866973197207</v>
+        <v>0.3941770991180765</v>
       </c>
     </row>
     <row r="9">
@@ -6913,19 +6913,19 @@
         <v>3851</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>990</v>
+        <v>1017</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8458</v>
+        <v>8710</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08576777104030554</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02205317924526555</v>
+        <v>0.02265455038666007</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1883860691267912</v>
+        <v>0.1939890917449706</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -6934,19 +6934,19 @@
         <v>3637</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9683</v>
+        <v>8936</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04875754280068877</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01334894592720481</v>
+        <v>0.01330606976360469</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1297991281298019</v>
+        <v>0.119780959772527</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -6955,19 +6955,19 @@
         <v>7488</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3179</v>
+        <v>3313</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14721</v>
+        <v>14190</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06266262224415936</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02660398298046576</v>
+        <v>0.02772321494871867</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1231928765978792</v>
+        <v>0.1187492857720499</v>
       </c>
     </row>
     <row r="10">
@@ -6984,19 +6984,19 @@
         <v>4854</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1924</v>
+        <v>1879</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10726</v>
+        <v>9919</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1081151864190988</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04284719812877893</v>
+        <v>0.04185176924456828</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2388919989959516</v>
+        <v>0.220922831244294</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6307</v>
+        <v>7314</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02848859504913488</v>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08454389693249924</v>
+        <v>0.09804276469686757</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -7026,19 +7026,19 @@
         <v>6979</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3121</v>
+        <v>2953</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14088</v>
+        <v>13168</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05840502981531999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02612143097850855</v>
+        <v>0.02471522018076724</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1178963431037853</v>
+        <v>0.110195428850822</v>
       </c>
     </row>
     <row r="11">
@@ -7102,19 +7102,19 @@
         <v>16591</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10388</v>
+        <v>10858</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22649</v>
+        <v>23074</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3695410225260187</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2313821912325757</v>
+        <v>0.2418322220815005</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5044757808006642</v>
+        <v>0.5139335800816157</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -7123,19 +7123,19 @@
         <v>37452</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27581</v>
+        <v>27698</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46934</v>
+        <v>46176</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5020223659201256</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3697105388785734</v>
+        <v>0.3712785362122838</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6291298091711224</v>
+        <v>0.6189649088279505</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>49</v>
@@ -7144,19 +7144,19 @@
         <v>54043</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42784</v>
+        <v>44056</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>64733</v>
+        <v>65336</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4522479199819387</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3580321911016216</v>
+        <v>0.3686797300074624</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5417044270643656</v>
+        <v>0.5467549869275703</v>
       </c>
     </row>
     <row r="13">
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4219</v>
+        <v>5110</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01181395108831496</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04914151542940905</v>
+        <v>0.05952493837871028</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5567</v>
+        <v>5560</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004923930032384189</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0270301258324967</v>
+        <v>0.02699694793073402</v>
       </c>
     </row>
     <row r="15">
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5848</v>
+        <v>5649</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007943512472296237</v>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04868110044210777</v>
+        <v>0.04702330169621789</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8577</v>
+        <v>7313</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02514604165793564</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09991650785095509</v>
+        <v>0.085186045719743</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -7353,19 +7353,19 @@
         <v>3113</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8032</v>
+        <v>9012</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01511334494044613</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.00457207208527395</v>
+        <v>0.004604474798546268</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03899798394630073</v>
+        <v>0.04375645599770317</v>
       </c>
     </row>
     <row r="16">
@@ -7382,19 +7382,19 @@
         <v>5759</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1983</v>
+        <v>1999</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11813</v>
+        <v>12592</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04794165051081712</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01650903760101217</v>
+        <v>0.0166398971585014</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0983424239049901</v>
+        <v>0.1048282080231579</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -7403,19 +7403,19 @@
         <v>13308</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7541</v>
+        <v>7613</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20415</v>
+        <v>21056</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1550262724878859</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08784332528040566</v>
+        <v>0.08868835840937518</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2378136959402394</v>
+        <v>0.2452779035576189</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -7424,19 +7424,19 @@
         <v>19067</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11760</v>
+        <v>11898</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27651</v>
+        <v>28501</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09257338990246913</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05709837062970616</v>
+        <v>0.05776847791422471</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1342508785896382</v>
+        <v>0.1383794378227735</v>
       </c>
     </row>
     <row r="17">
@@ -7453,19 +7453,19 @@
         <v>22718</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14379</v>
+        <v>14618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32242</v>
+        <v>33987</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1891279603398587</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1197069329027168</v>
+        <v>0.1216958230045868</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2684113585009035</v>
+        <v>0.2829409705939369</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -7474,19 +7474,19 @@
         <v>6909</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2978</v>
+        <v>2767</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14648</v>
+        <v>14268</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08047947526442331</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03468696629743241</v>
+        <v>0.03222909628792989</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1706363690420264</v>
+        <v>0.1662072541063664</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -7495,19 +7495,19 @@
         <v>29627</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19758</v>
+        <v>19787</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>42068</v>
+        <v>41223</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1438444193266306</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09592693411167873</v>
+        <v>0.09606836887372334</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2042456196002812</v>
+        <v>0.2001458674230745</v>
       </c>
     </row>
     <row r="18">
@@ -7524,19 +7524,19 @@
         <v>30811</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21814</v>
+        <v>21400</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>42121</v>
+        <v>41221</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2565008064654192</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1815988959627314</v>
+        <v>0.1781493958956979</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.350652005926001</v>
+        <v>0.3431603937676288</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -7545,19 +7545,19 @@
         <v>21967</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14716</v>
+        <v>13603</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31233</v>
+        <v>29947</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2558863097413336</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1714197287152094</v>
+        <v>0.1584587005585574</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3638334504732353</v>
+        <v>0.3488470322499141</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>50</v>
@@ -7566,19 +7566,19 @@
         <v>52778</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>41469</v>
+        <v>40125</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>67217</v>
+        <v>65907</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.256244690721253</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2013392901655067</v>
+        <v>0.1948132730119645</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.326347642009446</v>
+        <v>0.3199882102242053</v>
       </c>
     </row>
     <row r="19">
@@ -7595,19 +7595,19 @@
         <v>22759</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14681</v>
+        <v>14396</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33145</v>
+        <v>33114</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1894684458245977</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1222193877627944</v>
+        <v>0.1198413440416097</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.27592443802871</v>
+        <v>0.2756712706762165</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -7616,19 +7616,19 @@
         <v>3888</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11987</v>
+        <v>11029</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04528663404527102</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0112618167459104</v>
+        <v>0.01110384901529528</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1396299879555771</v>
+        <v>0.1284731330418838</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -7637,19 +7637,19 @@
         <v>26647</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17566</v>
+        <v>18409</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38742</v>
+        <v>38326</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1293749895510242</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08528614299711039</v>
+        <v>0.08937658146990685</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1881001433442256</v>
+        <v>0.1860814571168251</v>
       </c>
     </row>
     <row r="20">
@@ -7666,19 +7666,19 @@
         <v>21154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13937</v>
+        <v>13828</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31588</v>
+        <v>30793</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1761032591131011</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1160252833049121</v>
+        <v>0.1151180517488158</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2629668308379164</v>
+        <v>0.2563439147141226</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -7687,19 +7687,19 @@
         <v>8072</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4010</v>
+        <v>4022</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15383</v>
+        <v>15137</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09402771565570806</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04671173690052844</v>
+        <v>0.04685641188767065</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1791982100336637</v>
+        <v>0.1763254512401458</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>28</v>
@@ -7708,19 +7708,19 @@
         <v>29226</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20509</v>
+        <v>20124</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41103</v>
+        <v>42494</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1418950394977486</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09957331142448837</v>
+        <v>0.09770659613392847</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.199560359748898</v>
+        <v>0.2063140224431538</v>
       </c>
     </row>
     <row r="21">
@@ -7750,19 +7750,19 @@
         <v>4690</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1222</v>
+        <v>1013</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11144</v>
+        <v>11404</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05463265272041085</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01423536589709685</v>
+        <v>0.01180076087425528</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1298195646126463</v>
+        <v>0.1328421664664814</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -7771,19 +7771,19 @@
         <v>4690</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1555</v>
+        <v>1535</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11486</v>
+        <v>12144</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02277031261327286</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.007548059100544636</v>
+        <v>0.007454222052755309</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05576879049532378</v>
+        <v>0.05896113129865474</v>
       </c>
     </row>
     <row r="22">
@@ -7800,19 +7800,19 @@
         <v>15966</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8919</v>
+        <v>9770</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23654</v>
+        <v>24188</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1329143652739099</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07424854092006353</v>
+        <v>0.0813318307269313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.196919268872781</v>
+        <v>0.2013592225795808</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -7821,19 +7821,19 @@
         <v>23839</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15401</v>
+        <v>15843</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33340</v>
+        <v>33372</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2777009473387167</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1794061641253881</v>
+        <v>0.1845572146106313</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3883747444319964</v>
+        <v>0.388752182149077</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -7842,19 +7842,19 @@
         <v>39805</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29147</v>
+        <v>29527</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52082</v>
+        <v>52544</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1932598834147713</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1415140764968044</v>
+        <v>0.1433579517901466</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2528684208499526</v>
+        <v>0.2551121146602783</v>
       </c>
     </row>
     <row r="23">
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7415</v>
+        <v>6927</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04943553891735823</v>
@@ -8018,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2391424014926312</v>
+        <v>0.2234120253835097</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8353</v>
+        <v>7689</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02480215617529211</v>
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.135148646334974</v>
+        <v>0.124415391601812</v>
       </c>
     </row>
     <row r="26">
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6721</v>
+        <v>6751</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0647410598834539</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2167605518871902</v>
+        <v>0.2177132141951864</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6146</v>
+        <v>6673</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03248104326055095</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.099444422232257</v>
+        <v>0.1079725710705965</v>
       </c>
     </row>
     <row r="27">
@@ -8119,19 +8119,19 @@
         <v>5709</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2053</v>
+        <v>2033</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>11319</v>
+        <v>11670</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1853854931725313</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06666169557916947</v>
+        <v>0.06602803516785109</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3675515774463009</v>
+        <v>0.3789514587721871</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -8153,19 +8153,19 @@
         <v>5709</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2121</v>
+        <v>2031</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>13761</v>
+        <v>12588</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09237629260560482</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03431574176551604</v>
+        <v>0.03286935368539325</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2226637399115001</v>
+        <v>0.2036848198148231</v>
       </c>
     </row>
     <row r="28">
@@ -8182,19 +8182,19 @@
         <v>4637</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1689</v>
+        <v>1118</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11025</v>
+        <v>10853</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1505822120890514</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05484143122847049</v>
+        <v>0.03630466897866574</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3580024235014994</v>
+        <v>0.3524079237066015</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -8203,19 +8203,19 @@
         <v>9407</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4624</v>
+        <v>4005</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15242</v>
+        <v>14779</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3033703805799819</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1491211059571798</v>
+        <v>0.1291733700984962</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4915582024617652</v>
+        <v>0.4766219491870605</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -8224,19 +8224,19 @@
         <v>14044</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>8182</v>
+        <v>8057</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>21748</v>
+        <v>21697</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2272371065159899</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.132382015425497</v>
+        <v>0.1303695492565941</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3518937748630827</v>
+        <v>0.3510683407581493</v>
       </c>
     </row>
     <row r="29">
@@ -8253,19 +8253,19 @@
         <v>10418</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5325</v>
+        <v>5095</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16390</v>
+        <v>16518</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3382759148362011</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1728966756102161</v>
+        <v>0.1654569116885036</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5322265040021281</v>
+        <v>0.5363575736247892</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5081</v>
+        <v>4881</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02841267105134726</v>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1638776120355794</v>
+        <v>0.1574100624768914</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -8295,19 +8295,19 @@
         <v>11299</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6032</v>
+        <v>5393</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19980</v>
+        <v>18390</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.18281535480909</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0976050415081942</v>
+        <v>0.08725375371589784</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3232857892268414</v>
+        <v>0.297563670259137</v>
       </c>
     </row>
     <row r="30">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8739</v>
+        <v>8963</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08560284073318657</v>
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2837723703567336</v>
+        <v>0.2910397854105345</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -8345,19 +8345,19 @@
         <v>3921</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1080</v>
+        <v>1041</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9684</v>
+        <v>8991</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1264485325112592</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03482754400759382</v>
+        <v>0.0335681970500867</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.312301134630423</v>
+        <v>0.2899508512474819</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6</v>
@@ -8366,19 +8366,19 @@
         <v>6557</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2683</v>
+        <v>2484</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>12809</v>
+        <v>13773</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1060954104260374</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04341650454336737</v>
+        <v>0.04018479181895607</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2072507218430554</v>
+        <v>0.2228582884354406</v>
       </c>
     </row>
     <row r="31">
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5442</v>
+        <v>4111</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02819643323064303</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.176713513271418</v>
+        <v>0.133486391221403</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5065</v>
+        <v>5622</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03090977329590141</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1633445177540474</v>
+        <v>0.181304741206042</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5655</v>
+        <v>5381</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02955773494857749</v>
@@ -8449,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09150560107687618</v>
+        <v>0.08707106493212471</v>
       </c>
     </row>
     <row r="32">
@@ -8466,19 +8466,19 @@
         <v>6527</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2702</v>
+        <v>2358</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12541</v>
+        <v>12464</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2119571059383867</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08773820625307784</v>
+        <v>0.07657316521142758</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4072405370921099</v>
+        <v>0.4047334142152341</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>10</v>
@@ -8490,16 +8490,16 @@
         <v>7120</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18420</v>
+        <v>19231</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3966820437606981</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2296256685963551</v>
+        <v>0.2296394242813325</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5940704233620283</v>
+        <v>0.620214508495735</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>16</v>
@@ -8508,19 +8508,19 @@
         <v>18827</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>11775</v>
+        <v>10859</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>27141</v>
+        <v>26926</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3046349012588574</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1905223913059712</v>
+        <v>0.1756977730264098</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4391575072739147</v>
+        <v>0.4356757011715859</v>
       </c>
     </row>
     <row r="33">
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4302</v>
+        <v>5153</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005297183394955115</v>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02246845170470331</v>
+        <v>0.02691781490626524</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6137</v>
+        <v>5140</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002618765577259076</v>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01584619472561659</v>
+        <v>0.01327300481147041</v>
       </c>
     </row>
     <row r="35">
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4864</v>
+        <v>4451</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.004872921290890019</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02483919277943298</v>
+        <v>0.02272893843942609</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -8696,19 +8696,19 @@
         <v>3692</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11061</v>
+        <v>10233</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01928149540043633</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005053285432277659</v>
+        <v>0.004987578768572906</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05777397311594814</v>
+        <v>0.05344772302386857</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4</v>
@@ -8717,19 +8717,19 @@
         <v>4646</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1223</v>
+        <v>1312</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11875</v>
+        <v>13028</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01199607997393689</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.003158300662688668</v>
+        <v>0.003387652475322542</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03066319573014672</v>
+        <v>0.03363972676921034</v>
       </c>
     </row>
     <row r="36">
@@ -8746,19 +8746,19 @@
         <v>6732</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2898</v>
+        <v>2804</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13480</v>
+        <v>13682</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03437705781219804</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01480111365776535</v>
+        <v>0.0143205232791411</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06884145173326961</v>
+        <v>0.06987079648589443</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>20</v>
@@ -8767,19 +8767,19 @@
         <v>19254</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>12143</v>
+        <v>12121</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>28407</v>
+        <v>28954</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1005664484392151</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06342336294163514</v>
+        <v>0.06331055942237107</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1483749026581714</v>
+        <v>0.1512326497525794</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>27</v>
@@ -8788,19 +8788,19 @@
         <v>25985</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>18412</v>
+        <v>18125</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>38806</v>
+        <v>36136</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06709906964944451</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0475429099796801</v>
+        <v>0.04680208395203167</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1002043746862328</v>
+        <v>0.09331012743868324</v>
       </c>
     </row>
     <row r="37">
@@ -8817,19 +8817,19 @@
         <v>34975</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>25119</v>
+        <v>24641</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>47695</v>
+        <v>46466</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1786121671612417</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1282815549320811</v>
+        <v>0.1258370167425995</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2435734523664122</v>
+        <v>0.2372936664044495</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>8</v>
@@ -8838,19 +8838,19 @@
         <v>9424</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4592</v>
+        <v>4131</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>17986</v>
+        <v>17185</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0492226683332191</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02398758232353972</v>
+        <v>0.02157451335141133</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09394572600787378</v>
+        <v>0.08976245736229019</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>41</v>
@@ -8859,19 +8859,19 @@
         <v>44399</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>33980</v>
+        <v>31905</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>59802</v>
+        <v>57347</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1146459533593311</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08774277381687616</v>
+        <v>0.08238588328185169</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1544212519489578</v>
+        <v>0.1480808112109706</v>
       </c>
     </row>
     <row r="38">
@@ -8888,19 +8888,19 @@
         <v>47530</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>34888</v>
+        <v>36084</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>59093</v>
+        <v>60190</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2427269264559588</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1781659356113257</v>
+        <v>0.1842757600648904</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3017806194082812</v>
+        <v>0.3073794891227959</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>51</v>
@@ -8909,19 +8909,19 @@
         <v>56307</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>45121</v>
+        <v>44709</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>70807</v>
+        <v>70891</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2941032515244424</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2356792029059763</v>
+        <v>0.2335272001885764</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3698382325236856</v>
+        <v>0.3702767687339657</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>97</v>
@@ -8930,19 +8930,19 @@
         <v>103837</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>87266</v>
+        <v>86012</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>123207</v>
+        <v>122631</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2681258113998994</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2253365081546611</v>
+        <v>0.2220991880539546</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3181443763366174</v>
+        <v>0.3166576476102794</v>
       </c>
     </row>
     <row r="39">
@@ -8959,19 +8959,19 @@
         <v>37028</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>26331</v>
+        <v>26444</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>49087</v>
+        <v>49415</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1890951185289976</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1344697841189774</v>
+        <v>0.1350455976436541</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.250680037133397</v>
+        <v>0.2523550193685357</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>7</v>
@@ -8980,19 +8980,19 @@
         <v>8406</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>3466</v>
+        <v>3880</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>16726</v>
+        <v>16894</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.043906254349314</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01810196462688229</v>
+        <v>0.02026479567499987</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.08736090873062727</v>
+        <v>0.0882427241152626</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>41</v>
@@ -9001,19 +9001,19 @@
         <v>45434</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>32911</v>
+        <v>33305</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>59975</v>
+        <v>60801</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1173181813594812</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.08498131421869722</v>
+        <v>0.08599958621218542</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1548679122754382</v>
+        <v>0.1569991978342778</v>
       </c>
     </row>
     <row r="40">
@@ -9030,19 +9030,19 @@
         <v>28644</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>19921</v>
+        <v>19718</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>40476</v>
+        <v>39233</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1462816770123368</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.101733040466305</v>
+        <v>0.1006995875469087</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2067034930488485</v>
+        <v>0.2003560544529852</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>14</v>
@@ -9051,19 +9051,19 @@
         <v>14118</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>8168</v>
+        <v>7254</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>22691</v>
+        <v>22559</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.07374054388422088</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04266470319071783</v>
+        <v>0.0378881539605784</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1185212447961957</v>
+        <v>0.1178279159451271</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>41</v>
@@ -9072,19 +9072,19 @@
         <v>42762</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>31126</v>
+        <v>30901</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>55747</v>
+        <v>56451</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1104195578053261</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08037435893608232</v>
+        <v>0.07979241202293105</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1439498918733598</v>
+        <v>0.1457662050405424</v>
       </c>
     </row>
     <row r="41">
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4387</v>
+        <v>5253</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.004434515349350049</v>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02240222328809371</v>
+        <v>0.02682877900862244</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -9122,19 +9122,19 @@
         <v>5648</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1934</v>
+        <v>1989</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13007</v>
+        <v>12329</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02950243897853296</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01009913109352336</v>
+        <v>0.01038714784256923</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.06793767979460778</v>
+        <v>0.06439889848349924</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>6</v>
@@ -9143,19 +9143,19 @@
         <v>6517</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2712</v>
+        <v>2368</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>13210</v>
+        <v>13957</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01682733066248117</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.007001754330439865</v>
+        <v>0.00611336063980152</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03411168272072324</v>
+        <v>0.036038703694916</v>
       </c>
     </row>
     <row r="42">
@@ -9172,19 +9172,19 @@
         <v>39085</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>28707</v>
+        <v>28686</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>50986</v>
+        <v>50216</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1995996163890269</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1466022299695528</v>
+        <v>0.1464971592125101</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2603770579828966</v>
+        <v>0.2564440612028211</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>63</v>
@@ -9193,19 +9193,19 @@
         <v>73591</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>58663</v>
+        <v>60316</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>87472</v>
+        <v>88853</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3843797156956641</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3064109979240039</v>
+        <v>0.3150434869635929</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.456882595204385</v>
+        <v>0.4641002661789981</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>103</v>
@@ -9214,19 +9214,19 @@
         <v>112675</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>94684</v>
+        <v>94744</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>132767</v>
+        <v>131543</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2909492502128405</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2444910018942872</v>
+        <v>0.2446478572638648</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3428300950123535</v>
+        <v>0.3396699860184578</v>
       </c>
     </row>
     <row r="43">
@@ -9607,16 +9607,16 @@
         <v>625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6339</v>
+        <v>6033</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06534316958502052</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0165265024198462</v>
+        <v>0.0165076282530745</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1675061628879401</v>
+        <v>0.159424867325535</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -9625,19 +9625,19 @@
         <v>2321</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5308</v>
+        <v>5533</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.02746297829129827</v>
+        <v>0.02746297829129828</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007225064581645633</v>
+        <v>0.007247323829069223</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06280288506717729</v>
+        <v>0.06546563253546889</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -9646,19 +9646,19 @@
         <v>4794</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1984</v>
+        <v>2225</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9754</v>
+        <v>9935</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.0391779163857438</v>
+        <v>0.03917791638574381</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01621487859043751</v>
+        <v>0.01818432872364699</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07971284000845913</v>
+        <v>0.0811912331762637</v>
       </c>
     </row>
     <row r="6">
@@ -9678,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3671</v>
+        <v>3054</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02430597860866288</v>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09699925336780528</v>
+        <v>0.08069304405763034</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -9696,19 +9696,19 @@
         <v>4407</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1946</v>
+        <v>2022</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8218</v>
+        <v>8428</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05214365635880532</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02302819117302816</v>
+        <v>0.02392003848355337</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0972314953007869</v>
+        <v>0.09971068179160261</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -9717,19 +9717,19 @@
         <v>5327</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2609</v>
+        <v>2565</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9812</v>
+        <v>9601</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.0435344952010028</v>
+        <v>0.04353449520100281</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02132008556809012</v>
+        <v>0.0209634146023931</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08018496098042387</v>
+        <v>0.07846360306887233</v>
       </c>
     </row>
     <row r="7">
@@ -9746,19 +9746,19 @@
         <v>6108</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2064</v>
+        <v>1911</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11912</v>
+        <v>12549</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1614018390203031</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05455129579840444</v>
+        <v>0.05048745950826624</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3147719888411007</v>
+        <v>0.3316183040406474</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -9770,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4900</v>
+        <v>4850</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01666801338309653</v>
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05797065850779711</v>
+        <v>0.05738584394626864</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -9788,19 +9788,19 @@
         <v>7517</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3303</v>
+        <v>2960</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14835</v>
+        <v>15101</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06142881710673416</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02699425966600912</v>
+        <v>0.02418990853317546</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1212405941551592</v>
+        <v>0.1234075035066757</v>
       </c>
     </row>
     <row r="8">
@@ -9817,19 +9817,19 @@
         <v>6019</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10269</v>
+        <v>10456</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1590594962544438</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0731034502885551</v>
+        <v>0.07307037554739931</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2713682034456548</v>
+        <v>0.2762890240819201</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -9838,19 +9838,19 @@
         <v>12934</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8435</v>
+        <v>8536</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18747</v>
+        <v>18782</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1530283312103003</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09979207879142095</v>
+        <v>0.100995145019602</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2217995971011974</v>
+        <v>0.2222121005227757</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>32</v>
@@ -9859,19 +9859,19 @@
         <v>18953</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13157</v>
+        <v>13130</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26298</v>
+        <v>26237</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1548935468471926</v>
+        <v>0.1548935468471927</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1075220458224762</v>
+        <v>0.1072997333845976</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2149196162386193</v>
+        <v>0.2144214754715296</v>
       </c>
     </row>
     <row r="9">
@@ -9888,19 +9888,19 @@
         <v>2406</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>632</v>
+        <v>696</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5900</v>
+        <v>6362</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06358840240441482</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01671084469465687</v>
+        <v>0.01838633617130249</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1559157958810825</v>
+        <v>0.168107550078556</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -9909,19 +9909,19 @@
         <v>1975</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4968</v>
+        <v>4866</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02337056435348414</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006737279415238005</v>
+        <v>0.006311675896402879</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05877320244347888</v>
+        <v>0.0575696930914423</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -9930,19 +9930,19 @@
         <v>4382</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1742</v>
+        <v>2090</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8202</v>
+        <v>8704</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03580844988066655</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0142383199317956</v>
+        <v>0.01707884919333329</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06703322749083414</v>
+        <v>0.07113190186330652</v>
       </c>
     </row>
     <row r="10">
@@ -9959,19 +9959,19 @@
         <v>5074</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1928</v>
+        <v>1792</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10748</v>
+        <v>11048</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1340779187739848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05094170062806683</v>
+        <v>0.04736040525868906</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2840025016675474</v>
+        <v>0.2919377243103077</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -9980,19 +9980,19 @@
         <v>2729</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>997</v>
+        <v>955</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6774</v>
+        <v>6021</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03228412555705669</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0118008712253703</v>
+        <v>0.01129467788574915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08014838942880659</v>
+        <v>0.07123291709323558</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -10001,19 +10001,19 @@
         <v>7803</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3612</v>
+        <v>3917</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14051</v>
+        <v>14510</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06376517000818999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02951666314888074</v>
+        <v>0.03201347378298358</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1148282784081882</v>
+        <v>0.1185808912627643</v>
       </c>
     </row>
     <row r="11">
@@ -10077,19 +10077,19 @@
         <v>14843</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10440</v>
+        <v>9820</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20224</v>
+        <v>20323</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3922231953531699</v>
+        <v>0.39222319535317</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2758796347135621</v>
+        <v>0.2595059971780624</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5344058593349057</v>
+        <v>0.5370333182789835</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>111</v>
@@ -10098,19 +10098,19 @@
         <v>58746</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51603</v>
+        <v>52011</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>64291</v>
+        <v>64835</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6950423308459588</v>
+        <v>0.6950423308459587</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6105362270758818</v>
+        <v>0.6153665012551434</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7606454517296846</v>
+        <v>0.7670860305735254</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>136</v>
@@ -10119,19 +10119,19 @@
         <v>73589</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>64512</v>
+        <v>64286</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>82919</v>
+        <v>81883</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6013916045704699</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5272100742139896</v>
+        <v>0.5253633483436774</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6776408415715565</v>
+        <v>0.6691746615254269</v>
       </c>
     </row>
     <row r="13">
@@ -10239,16 +10239,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4410</v>
+        <v>3925</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.005999877997251624</v>
+        <v>0.005999877997251623</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03972295346913069</v>
+        <v>0.03535233548019258</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -10260,16 +10260,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3410</v>
+        <v>3716</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.002663179960156325</v>
+        <v>0.002663179960156324</v>
       </c>
       <c r="V14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01363381655074975</v>
+        <v>0.01485666959462767</v>
       </c>
     </row>
     <row r="15">
@@ -10286,19 +10286,19 @@
         <v>6420</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2628</v>
+        <v>2588</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14288</v>
+        <v>13674</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04614891539244006</v>
+        <v>0.04614891539244005</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01889539925082467</v>
+        <v>0.01860342117097974</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.102710869649612</v>
+        <v>0.09829885381477517</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>7</v>
@@ -10307,19 +10307,19 @@
         <v>7789</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3251</v>
+        <v>2612</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20268</v>
+        <v>19160</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.07015126733260561</v>
+        <v>0.0701512673326056</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02928196514309463</v>
+        <v>0.02352130733192702</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1825464293817567</v>
+        <v>0.1725682423935885</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>13</v>
@@ -10328,19 +10328,19 @@
         <v>14208</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7316</v>
+        <v>7798</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>27229</v>
+        <v>25836</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.05680289580886675</v>
+        <v>0.05680289580886674</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02924873146733181</v>
+        <v>0.03117526343529681</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1088593642742006</v>
+        <v>0.1032883286080627</v>
       </c>
     </row>
     <row r="16">
@@ -10357,19 +10357,19 @@
         <v>7459</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2425</v>
+        <v>2711</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19233</v>
+        <v>18040</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05362155751600414</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01743554082942272</v>
+        <v>0.01948524467532238</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1382646694492165</v>
+        <v>0.1296879026028165</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -10378,19 +10378,19 @@
         <v>13832</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6738</v>
+        <v>7578</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22661</v>
+        <v>23306</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1245794292088022</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06068778064667327</v>
+        <v>0.06825249942612512</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2040999678357611</v>
+        <v>0.2099111155015223</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -10399,19 +10399,19 @@
         <v>21291</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13310</v>
+        <v>13362</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35540</v>
+        <v>34222</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08511779493852625</v>
+        <v>0.08511779493852624</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05321263220839809</v>
+        <v>0.0534181961460868</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1420842661257776</v>
+        <v>0.1368163578833936</v>
       </c>
     </row>
     <row r="17">
@@ -10428,19 +10428,19 @@
         <v>19352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11927</v>
+        <v>12054</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28730</v>
+        <v>29663</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1391198246808512</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08573776271012107</v>
+        <v>0.08664992156951025</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2065327475002361</v>
+        <v>0.2132417902380025</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -10449,19 +10449,19 @@
         <v>10830</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4413</v>
+        <v>4752</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23039</v>
+        <v>23859</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09754637472474145</v>
+        <v>0.09754637472474144</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03974501106870061</v>
+        <v>0.04279684176990427</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2075084710444399</v>
+        <v>0.2148926669340794</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -10470,19 +10470,19 @@
         <v>30183</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20107</v>
+        <v>20270</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45051</v>
+        <v>44569</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.120666519655584</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08038436758989144</v>
+        <v>0.08103813508301584</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1801087830914334</v>
+        <v>0.1781823469186006</v>
       </c>
     </row>
     <row r="18">
@@ -10499,19 +10499,19 @@
         <v>19462</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13022</v>
+        <v>12286</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29908</v>
+        <v>29312</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1399093008414442</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09360960649517948</v>
+        <v>0.08832125854629302</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2150048419222014</v>
+        <v>0.2107173987244144</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -10520,19 +10520,19 @@
         <v>18454</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12723</v>
+        <v>12063</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27428</v>
+        <v>26377</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.166213031034631</v>
+        <v>0.1662130310346309</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.114590742256151</v>
+        <v>0.1086520122190977</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.247036290464076</v>
+        <v>0.2375742469460705</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>47</v>
@@ -10541,19 +10541,19 @@
         <v>37917</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>28046</v>
+        <v>28582</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>48737</v>
+        <v>50847</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1515847994365727</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1121230295712635</v>
+        <v>0.1142679981740666</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1948430926262391</v>
+        <v>0.2032774620209331</v>
       </c>
     </row>
     <row r="19">
@@ -10570,19 +10570,19 @@
         <v>15857</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8971</v>
+        <v>8020</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28241</v>
+        <v>26345</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1139902677859626</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06449354580907375</v>
+        <v>0.05765064872696089</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2030151206721646</v>
+        <v>0.18939120998325</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -10591,19 +10591,19 @@
         <v>5582</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2656</v>
+        <v>2447</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10401</v>
+        <v>10379</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05027294386113659</v>
+        <v>0.05027294386113657</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02391962999915703</v>
+        <v>0.02203850432829111</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09368357547522224</v>
+        <v>0.09348246942862812</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -10612,19 +10612,19 @@
         <v>21438</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13359</v>
+        <v>13099</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34199</v>
+        <v>32769</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08570790933315468</v>
+        <v>0.08570790933315467</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05340597873321989</v>
+        <v>0.05236935171621028</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1367210521505677</v>
+        <v>0.1310071550037297</v>
       </c>
     </row>
     <row r="20">
@@ -10641,19 +10641,19 @@
         <v>40162</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29613</v>
+        <v>28467</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53039</v>
+        <v>54287</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2887171525702941</v>
+        <v>0.288717152570294</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2128806650849279</v>
+        <v>0.2046440644680339</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3812843748960426</v>
+        <v>0.3902574323831368</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -10662,19 +10662,19 @@
         <v>12415</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6918</v>
+        <v>7128</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20063</v>
+        <v>20085</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1118193493738273</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06231358458798823</v>
+        <v>0.06420186066727332</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1807064749528089</v>
+        <v>0.1809055990690333</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>48</v>
@@ -10683,19 +10683,19 @@
         <v>52577</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>38928</v>
+        <v>39559</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>69143</v>
+        <v>69757</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2101971085486806</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1556289086322667</v>
+        <v>0.1581516918684717</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2764246990381642</v>
+        <v>0.2788794792476044</v>
       </c>
     </row>
     <row r="21">
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6542</v>
+        <v>6669</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00942214268314779</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04702995264759705</v>
+        <v>0.04794094601846833</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2185</v>
+        <v>2940</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.004436653054884871</v>
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01968009328909955</v>
+        <v>0.02648096655312349</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -10757,16 +10757,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7369</v>
+        <v>7356</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.00720922167448079</v>
+        <v>0.007209221674480788</v>
       </c>
       <c r="V21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02945844996222542</v>
+        <v>0.0294100286882354</v>
       </c>
     </row>
     <row r="22">
@@ -10783,19 +10783,19 @@
         <v>29083</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19762</v>
+        <v>19392</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41707</v>
+        <v>40785</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2090708385298559</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1420644781137462</v>
+        <v>0.1394067886031792</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2998186948700298</v>
+        <v>0.2931923827001816</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -10804,19 +10804,19 @@
         <v>40967</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31757</v>
+        <v>33021</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51053</v>
+        <v>51051</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3689810734121193</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2860291053098641</v>
+        <v>0.2974185995092706</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4598272751697265</v>
+        <v>0.4598053455595211</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>94</v>
@@ -10825,19 +10825,19 @@
         <v>70050</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57201</v>
+        <v>57611</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86736</v>
+        <v>85192</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2800505706439778</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2286828754373648</v>
+        <v>0.2303224103155918</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3467575924979539</v>
+        <v>0.3405851950812121</v>
       </c>
     </row>
     <row r="23">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2291</v>
+        <v>2460</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01227272127909053</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06501528158178331</v>
+        <v>0.06980533556214588</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2219</v>
+        <v>2073</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005623385156766876</v>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02884819500853882</v>
+        <v>0.02695986212123857</v>
       </c>
     </row>
     <row r="25">
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3688</v>
+        <v>3675</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01601764466459647</v>
@@ -11004,7 +11004,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08850272021927974</v>
+        <v>0.08818415871997139</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -11013,19 +11013,19 @@
         <v>2727</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>774</v>
+        <v>668</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6686</v>
+        <v>5875</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07737561866668488</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0219706461401944</v>
+        <v>0.01896117948196255</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1897360593550466</v>
+        <v>0.1667144286150817</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -11034,19 +11034,19 @@
         <v>3394</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1292</v>
+        <v>1302</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8258</v>
+        <v>7150</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0441319896746545</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01679419715993036</v>
+        <v>0.01692753981617235</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1073759284878671</v>
+        <v>0.09297114653495869</v>
       </c>
     </row>
     <row r="26">
@@ -11063,19 +11063,19 @@
         <v>3149</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8962</v>
+        <v>9790</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07558261188139301</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0200877870864089</v>
+        <v>0.02081455501953509</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2150801479941776</v>
+        <v>0.2349386901089658</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -11084,19 +11084,19 @@
         <v>2774</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>830</v>
+        <v>705</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6820</v>
+        <v>6251</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.07872989537446859</v>
+        <v>0.07872989537446858</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02354033928985166</v>
+        <v>0.02000144788050581</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1935325427764018</v>
+        <v>0.1773948468403249</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -11105,19 +11105,19 @@
         <v>5924</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2821</v>
+        <v>2490</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11668</v>
+        <v>11924</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07702470340100179</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03667820913238463</v>
+        <v>0.03237607550224485</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1517171906390749</v>
+        <v>0.1550441238946269</v>
       </c>
     </row>
     <row r="27">
@@ -11134,19 +11134,19 @@
         <v>12809</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5541</v>
+        <v>5318</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>22705</v>
+        <v>22030</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3073896435457977</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1329819281431685</v>
+        <v>0.1276295557298915</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5448920890297783</v>
+        <v>0.5286955732548253</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -11155,19 +11155,19 @@
         <v>4213</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1645</v>
+        <v>1733</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8252</v>
+        <v>8284</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.1195418390373663</v>
+        <v>0.1195418390373664</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04667142346094848</v>
+        <v>0.04918004507546789</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2341750892537132</v>
+        <v>0.2350775882861384</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>13</v>
@@ -11176,19 +11176,19 @@
         <v>17021</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>10375</v>
+        <v>8668</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>28043</v>
+        <v>30083</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2213174080910837</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1349026614632935</v>
+        <v>0.1127069399090987</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3646313580440643</v>
+        <v>0.3911548207789259</v>
       </c>
     </row>
     <row r="28">
@@ -11205,19 +11205,19 @@
         <v>2404</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>701</v>
+        <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6893</v>
+        <v>6109</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05768829636915597</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0168164527410373</v>
+        <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1654205085518606</v>
+        <v>0.146599863821023</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -11226,19 +11226,19 @@
         <v>5776</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3185</v>
+        <v>2968</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10778</v>
+        <v>10051</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.1639161292388836</v>
+        <v>0.1639161292388837</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09037512084974667</v>
+        <v>0.0842372578756657</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3058617938996575</v>
+        <v>0.2852174881081167</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -11247,19 +11247,19 @@
         <v>8180</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4180</v>
+        <v>4371</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>13665</v>
+        <v>13825</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.106362099432938</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0543464055589533</v>
+        <v>0.05683812020768542</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1776735094623781</v>
+        <v>0.1797661299376716</v>
       </c>
     </row>
     <row r="29">
@@ -11276,19 +11276,19 @@
         <v>9579</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3991</v>
+        <v>4382</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19045</v>
+        <v>19575</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2298847767524036</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09578185933731588</v>
+        <v>0.1051682336119858</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4570454900346215</v>
+        <v>0.4697667538198816</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -11297,19 +11297,19 @@
         <v>5172</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2246</v>
+        <v>2377</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9459</v>
+        <v>10002</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1467558716053226</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06373595279052648</v>
+        <v>0.06745623186616735</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2684240846582013</v>
+        <v>0.2838288605990313</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -11318,19 +11318,19 @@
         <v>14751</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8656</v>
+        <v>8591</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>26734</v>
+        <v>24210</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1917949480443391</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.112548995033648</v>
+        <v>0.1117108040112828</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3476043070779914</v>
+        <v>0.3147907630600798</v>
       </c>
     </row>
     <row r="30">
@@ -11350,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10328</v>
+        <v>9404</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07143704349524874</v>
@@ -11359,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.247848829970886</v>
+        <v>0.2256798696260682</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4380</v>
+        <v>4156</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04046259670323454</v>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1243067524141113</v>
+        <v>0.1179450889296645</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -11389,19 +11389,19 @@
         <v>4403</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1326</v>
+        <v>1061</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11521</v>
+        <v>11591</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.05724449072978857</v>
+        <v>0.05724449072978858</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01724689740618983</v>
+        <v>0.01379623745061922</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1497963648005329</v>
+        <v>0.1507187089090996</v>
       </c>
     </row>
     <row r="31">
@@ -11465,19 +11465,19 @@
         <v>10084</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4620</v>
+        <v>4473</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17912</v>
+        <v>17434</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2419999832914044</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.11086900832033</v>
+        <v>0.1073538687688185</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4298710496978852</v>
+        <v>0.4184034343626264</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -11486,19 +11486,19 @@
         <v>12719</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8452</v>
+        <v>8324</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17939</v>
+        <v>17618</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.3609453280949488</v>
+        <v>0.3609453280949489</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2398560816951239</v>
+        <v>0.2362155677103797</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5090583508215064</v>
+        <v>0.4999496832828608</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>29</v>
@@ -11507,19 +11507,19 @@
         <v>22803</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>15564</v>
+        <v>15197</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>31893</v>
+        <v>31496</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2965009754694275</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2023751029845394</v>
+        <v>0.1976026673651608</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4146903668066965</v>
+        <v>0.4095324222968097</v>
       </c>
     </row>
     <row r="33">
@@ -11627,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4271</v>
+        <v>3816</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.004760360397049748</v>
@@ -11636,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01850762983754759</v>
+        <v>0.01653674005859303</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4193</v>
+        <v>3967</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002444639293755574</v>
@@ -11657,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.00932908871445587</v>
+        <v>0.008827332404663433</v>
       </c>
     </row>
     <row r="35">
@@ -11674,19 +11674,19 @@
         <v>9560</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4766</v>
+        <v>4851</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>16875</v>
+        <v>17724</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.04372839434386857</v>
+        <v>0.04372839434386856</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02180144891353829</v>
+        <v>0.0221906914433157</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0771886373824579</v>
+        <v>0.08107551468026604</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>15</v>
@@ -11695,19 +11695,19 @@
         <v>12837</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>7457</v>
+        <v>7277</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>23258</v>
+        <v>25448</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05562068152627582</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0323111173984815</v>
+        <v>0.03153066149862641</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1007766732237759</v>
+        <v>0.1102657447243089</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>25</v>
@@ -11716,19 +11716,19 @@
         <v>22396</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>13948</v>
+        <v>14571</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>34131</v>
+        <v>36277</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.04983556903525459</v>
+        <v>0.04983556903525458</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03103736647751287</v>
+        <v>0.03242223536814727</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07594746951019681</v>
+        <v>0.08072202038048146</v>
       </c>
     </row>
     <row r="36">
@@ -11745,19 +11745,19 @@
         <v>11528</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5617</v>
+        <v>5862</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>22772</v>
+        <v>23357</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.05273283234856008</v>
+        <v>0.05273283234856009</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02569118192735632</v>
+        <v>0.02681273679496643</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1041635984106142</v>
+        <v>0.1068419230623451</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>26</v>
@@ -11766,19 +11766,19 @@
         <v>21013</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14034</v>
+        <v>13594</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>31994</v>
+        <v>30949</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09105051512185974</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06081094598418571</v>
+        <v>0.0589044327968292</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1386284872638687</v>
+        <v>0.1341020768962205</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>36</v>
@@ -11787,19 +11787,19 @@
         <v>32542</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>22924</v>
+        <v>22438</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>47763</v>
+        <v>45990</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.07241052587179073</v>
+        <v>0.07241052587179071</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05100950071084904</v>
+        <v>0.04992862532725149</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.106281000236556</v>
+        <v>0.1023344577302174</v>
       </c>
     </row>
     <row r="37">
@@ -11816,19 +11816,19 @@
         <v>38269</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>26222</v>
+        <v>26847</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>54677</v>
+        <v>52783</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.1750491693989565</v>
+        <v>0.1750491693989564</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1199468268655877</v>
+        <v>0.122803080011118</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2501033162395329</v>
+        <v>0.2414404510714501</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -11837,19 +11837,19 @@
         <v>16452</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>9133</v>
+        <v>9578</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>29958</v>
+        <v>30755</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.07128490769182005</v>
+        <v>0.07128490769182007</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03957110336169263</v>
+        <v>0.04150055776189204</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1298058598086732</v>
+        <v>0.1332589562321267</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>47</v>
@@ -11858,19 +11858,19 @@
         <v>54720</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>38889</v>
+        <v>39592</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>73353</v>
+        <v>74169</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1217619872742558</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08653392438076091</v>
+        <v>0.0880991948075202</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1632233884209081</v>
+        <v>0.1650377129375172</v>
       </c>
     </row>
     <row r="38">
@@ -11887,19 +11887,19 @@
         <v>27885</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>18836</v>
+        <v>19379</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>38834</v>
+        <v>38875</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1275528164005428</v>
+        <v>0.1275528164005427</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08616033002001021</v>
+        <v>0.08864285778232983</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1776364010402031</v>
+        <v>0.1778209935584395</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>58</v>
@@ -11908,19 +11908,19 @@
         <v>37165</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>28119</v>
+        <v>29007</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>46719</v>
+        <v>47677</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1610336954323858</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1218401447277464</v>
+        <v>0.1256858628399586</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2024316469498804</v>
+        <v>0.206581858580662</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>91</v>
@@ -11929,19 +11929,19 @@
         <v>65050</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>52382</v>
+        <v>52888</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>80753</v>
+        <v>78891</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1447466138536613</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1165575853333289</v>
+        <v>0.1176842415777065</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1796896981697151</v>
+        <v>0.1755456274920522</v>
       </c>
     </row>
     <row r="39">
@@ -11958,19 +11958,19 @@
         <v>27842</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>17775</v>
+        <v>17652</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>41841</v>
+        <v>42473</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1273552909303874</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.08130859956331285</v>
+        <v>0.08074324549894184</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1913884903637411</v>
+        <v>0.1942792359716405</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>19</v>
@@ -11979,19 +11979,19 @@
         <v>12729</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>7910</v>
+        <v>7172</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>20156</v>
+        <v>19059</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.05515265597026128</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03427286847258768</v>
+        <v>0.03107402853104423</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.08733431035153569</v>
+        <v>0.08258274209586654</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>43</v>
@@ -12000,19 +12000,19 @@
         <v>40571</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>29066</v>
+        <v>29096</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>56839</v>
+        <v>57853</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.09027629190216117</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.06467724533811701</v>
+        <v>0.06474411346278693</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.126476349775785</v>
+        <v>0.1287319628937439</v>
       </c>
     </row>
     <row r="40">
@@ -12029,19 +12029,19 @@
         <v>48213</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>36512</v>
+        <v>35276</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>67555</v>
+        <v>63385</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2205354273054596</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1670146677469638</v>
+        <v>0.1613588299829716</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3090101552934864</v>
+        <v>0.2899362895448984</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>22</v>
@@ -12050,19 +12050,19 @@
         <v>16570</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>10406</v>
+        <v>10162</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>25835</v>
+        <v>25151</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.07179567123391432</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04508685990846138</v>
+        <v>0.04403009362616913</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1119441349867241</v>
+        <v>0.1089801053467658</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>62</v>
@@ -12071,19 +12071,19 @@
         <v>64782</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>49841</v>
+        <v>49967</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>83949</v>
+        <v>83256</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.144151493756758</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.11090542980672</v>
+        <v>0.1111856885066985</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1868013154215306</v>
+        <v>0.1852576924771424</v>
       </c>
     </row>
     <row r="41">
@@ -12103,16 +12103,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6731</v>
+        <v>7787</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.005995306664428416</v>
+        <v>0.005995306664428415</v>
       </c>
       <c r="H41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03078675307594586</v>
+        <v>0.03561836829430669</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>2057</v>
+        <v>2456</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.002134382580655707</v>
@@ -12133,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.008913619666428743</v>
+        <v>0.01064323432695874</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2</v>
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>8682</v>
+        <v>8192</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00401256461589621</v>
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01931879415030648</v>
+        <v>0.0182278423020241</v>
       </c>
     </row>
     <row r="42">
@@ -12171,19 +12171,19 @@
         <v>54009</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>41040</v>
+        <v>42692</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>68908</v>
+        <v>68567</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2470507626077967</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1877276730078684</v>
+        <v>0.1952831071902238</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3152012342947462</v>
+        <v>0.3136411763657958</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>197</v>
@@ -12192,19 +12192,19 @@
         <v>112432</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>98803</v>
+        <v>99854</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>124933</v>
+        <v>126443</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4871671300457776</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.428112202409964</v>
+        <v>0.4326652078477285</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5413323187989627</v>
+        <v>0.5478769488083841</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>259</v>
@@ -12213,19 +12213,19 @@
         <v>166442</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>148059</v>
+        <v>146282</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>186012</v>
+        <v>184772</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.3703603143964668</v>
+        <v>0.3703603143964667</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3294548593135589</v>
+        <v>0.3255015687502933</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4139065834360615</v>
+        <v>0.4111473531883109</v>
       </c>
     </row>
     <row r="43">
